--- a/data/trans_camb/P26-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P26-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,52</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-26,9</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 10,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; -1,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,15; -19,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 11,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,02; -3,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,21; -18,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 9,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; -4,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,4; -22,41</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,03%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; 23,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,48; -3,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,36; -43,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,82; 26,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,13; -8,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,19; -41,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 19,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,49; -10,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,49; -47,72</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 10,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,35; -11,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 5,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 0,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,21; -16,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 6,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 0,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,84; -15,4</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,93%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 34,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,64; 9,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,94; -36,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; 13,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,72; 1,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,87; -42,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 17,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,98; 0,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,73; -43,66</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 12,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 6,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; -9,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,25; 5,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,03; -7,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,48; -21,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 7,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; -2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,33; -17,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,82%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,42; 62,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,01; 33,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,71; -45,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,42; 13,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,31; -19,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,14; -57,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 26,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,92; -8,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,53; -56,92</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,88</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 9,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,87; 0,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,7; 11,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 10,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,76; -8,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,89; -23,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 8,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; -5,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,43; -8,72</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,36%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,63%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,52; 34,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,24; 0,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,73; 41,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 25,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,04; -20,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,18; -61,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 25,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,69; -14,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,3; -20,98</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,02</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 10,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 6,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; -5,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 11,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,2; -1,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,06; -14,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 9,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,57; 1,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,29; -11,11</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,61%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; 56,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,9; 37,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,84; -26,2</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,78; 40,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,67; -3,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,71; -49,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 37,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,86; 5,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,14; -44,41</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 9,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 4,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; -2,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 7,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,64; -1,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,94; -8,23</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 6,58</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; -0,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,45; -6,33</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,05%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,83%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,19%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,45%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,64%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 110,98</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,77; 48,37</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,0; -34,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,01; 46,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,87; -10,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,16; -51,29</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 51,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,36; -5,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,54; -49,78</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,34</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,79</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,9</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 6,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; -1,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; -10,77</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,06; 3,97</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; -8,28</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,06; -21,57</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 4,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; -5,07</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,41; -17,3</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,84%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,87%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,87%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,94%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,52%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 23,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,62; -3,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,33; -37,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 10,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,48; -22,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,48; -60,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 14,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,02; -15,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,12; -52,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-29,54</t>
+          <t>-28,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-26,9</t>
+          <t>-25,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-28,26</t>
+          <t>-27,23</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,15; -19,84</t>
+          <t>-36,82; -19,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,21; -18,87</t>
+          <t>-33,15; -16,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,4; -22,41</t>
+          <t>-32,5; -21,08</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-60,72%</t>
+          <t>-59,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,16%</t>
+          <t>-54,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-59,03%</t>
+          <t>-56,88%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,36; -43,27</t>
+          <t>-72,96; -41,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,19; -41,22</t>
+          <t>-66,99; -36,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-68,49; -47,72</t>
+          <t>-67,01; -45,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,89</t>
+          <t>-16,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,43</t>
+          <t>-24,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-19,75</t>
+          <t>-20,3</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -11,66</t>
+          <t>-22,69; -10,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -16,43</t>
+          <t>-31,93; -17,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,84; -15,4</t>
+          <t>-25,52; -15,86</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-53,22%</t>
+          <t>-50,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-54,93%</t>
+          <t>-59,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-53,45%</t>
+          <t>-54,96%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,94; -36,39</t>
+          <t>-65,33; -33,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,87; -42,93</t>
+          <t>-74,21; -47,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-61,73; -43,66</t>
+          <t>-67,28; -44,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,21</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-25,77</t>
+          <t>-25,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,29</t>
+          <t>-20,14</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; -9,69</t>
+          <t>-18,58; -9,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,48; -21,74</t>
+          <t>-30,26; -21,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,33; -17,06</t>
+          <t>-23,17; -16,87</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-61,34%</t>
+          <t>-60,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,05%</t>
+          <t>-64,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-63,82%</t>
+          <t>-63,33%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,71; -45,88</t>
+          <t>-71,41; -45,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,14; -57,78</t>
+          <t>-71,73; -57,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,53; -56,92</t>
+          <t>-69,12; -56,11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,19</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-28,93</t>
+          <t>-29,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-20,66</t>
+          <t>-9,7</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 11,45</t>
+          <t>-20,12; 46,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,89; -23,84</t>
+          <t>-34,36; -24,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-25,43; -8,72</t>
+          <t>-25,08; 22,75</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-40,5%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-67,46%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-56,63%</t>
+          <t>-26,6%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-66,73; 41,93</t>
+          <t>-65,5; 156,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-73,18; -61,21</t>
+          <t>-74,27; -61,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,3; -20,98</t>
+          <t>-67,29; 65,18</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,48</t>
+          <t>-9,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-19,64</t>
+          <t>-19,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-14,65</t>
+          <t>-14,39</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -5,31</t>
+          <t>-15,15; -5,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,06; -14,17</t>
+          <t>-24,85; -13,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -11,11</t>
+          <t>-18,06; -10,79</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-43,25%</t>
+          <t>-42,09%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-60,31%</t>
+          <t>-59,47%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-53,61%</t>
+          <t>-52,65%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-59,84; -26,2</t>
+          <t>-59,58; -25,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-68,71; -49,63</t>
+          <t>-67,9; -48,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-61,14; -44,41</t>
+          <t>-60,39; -43,25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>-8,28</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,23</t>
+          <t>3,01; 14,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,03</t>
+          <t>-1,9; 8,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,14; -2,66</t>
+          <t>-7,13; 1,18</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 7,39</t>
+          <t>-1,98; 10,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -1,73</t>
+          <t>-11,47; -0,04</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -8,23</t>
+          <t>-21,05; -7,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,58</t>
+          <t>1,76; 11,2</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -0,74</t>
+          <t>-5,12; 2,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-11,45; -6,33</t>
+          <t>-13,17; -4,94</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>47,05%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-56,83%</t>
+          <t>-30,06%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-34,19%</t>
+          <t>-28,74%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-63,17%</t>
+          <t>-68,56%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-23,45%</t>
+          <t>-9,68%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-60,64%</t>
+          <t>-56,74%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 110,98</t>
+          <t>22,91; 201,86</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,77; 48,37</t>
+          <t>-14,98; 124,97</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-73,0; -34,42</t>
+          <t>-57,37; 20,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 46,08</t>
+          <t>-9,38; 69,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -10,93</t>
+          <t>-51,39; -0,04</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-76,16; -51,29</t>
+          <t>-88,41; -42,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,24; 51,01</t>
+          <t>10,62; 89,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-40,36; -5,58</t>
+          <t>-31,31; 18,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-70,54; -49,78</t>
+          <t>-80,28; -36,74</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-16,0</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-10,34</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-23,79</t>
+          <t>-11,48</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-19,9</t>
+          <t>-10,78</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,52</t>
+          <t>-7,74; 6,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -1,01</t>
+          <t>-10,64; 1,41</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -10,77</t>
+          <t>-15,95; -5,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,97</t>
+          <t>-6,38; 7,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -8,28</t>
+          <t>-13,46; -0,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -21,57</t>
+          <t>-17,11; -6,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,56</t>
+          <t>-4,65; 4,91</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -5,07</t>
+          <t>-10,6; -1,56</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -17,3</t>
+          <t>-14,61; -6,77</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>-39,01%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-55,87%</t>
+          <t>-87,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-27,87%</t>
+          <t>-39,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-64,16%</t>
+          <t>-65,86%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-20,94%</t>
+          <t>-39,58%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-60,52%</t>
+          <t>-73,08%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-51,7; 96,41</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-68,68; 21,7</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-96,57; -67,07</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-30,78; 49,66</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-63,65; -2,12</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-78,09; -46,13</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-26,27; 40,02</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-60,03; -12,11</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-81,98; -58,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,25</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-10,14</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-10,34</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-24,21</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-17,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 6,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; -1,01</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-17,75; 9,94</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 3,97</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; -8,28</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; -21,78</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 4,56</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-8,42; -5,07</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-21,02; -5,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-11,91%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-35,41%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-27,87%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-65,27%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-20,94%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-52,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>6,5; 23,36</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-18,62; -3,71</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-63,33; -37,79</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-61,2; 36,1</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-2,72; 10,95</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-33,48; -22,9</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-68,48; -60,29</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-71,67; -60,58</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>3,76; 14,33</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-25,02; -15,89</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-64,12; -52,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-63,81; -17,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P26-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 10,39</t>
+          <t>-2,54; 10,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -1,52</t>
+          <t>-15,5; -2,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-36,82; -19,12</t>
+          <t>-36,63; -19,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 11,45</t>
+          <t>-1,46; 11,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,02; -3,62</t>
+          <t>-16,94; -3,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,15; -16,85</t>
+          <t>-32,69; -17,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,02</t>
+          <t>-0,44; 8,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,06; -4,95</t>
+          <t>-14,38; -4,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,5; -21,08</t>
+          <t>-32,67; -20,82</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 23,22</t>
+          <t>-5,11; 22,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,48; -3,47</t>
+          <t>-29,56; -4,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,96; -41,09</t>
+          <t>-72,19; -42,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 26,25</t>
+          <t>-2,93; 27,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,13; -8,72</t>
+          <t>-34,06; -7,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,99; -36,52</t>
+          <t>-67,02; -39,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 19,71</t>
+          <t>-0,88; 19,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,49; -10,83</t>
+          <t>-29,0; -10,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,01; -45,18</t>
+          <t>-66,04; -43,89</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 10,54</t>
+          <t>-0,33; 10,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 2,74</t>
+          <t>-7,83; 2,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,69; -10,56</t>
+          <t>-22,93; -10,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 5,13</t>
+          <t>-6,26; 5,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 0,71</t>
+          <t>-11,19; 0,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,93; -17,88</t>
+          <t>-31,62; -17,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,0</t>
+          <t>-1,7; 6,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 0,21</t>
+          <t>-7,58; -0,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -15,86</t>
+          <t>-25,44; -16,01</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 34,17</t>
+          <t>-0,94; 34,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 9,0</t>
+          <t>-21,93; 9,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,33; -33,0</t>
+          <t>-65,02; -32,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 13,38</t>
+          <t>-14,15; 13,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 1,9</t>
+          <t>-25,65; 1,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,21; -47,0</t>
+          <t>-74,06; -46,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 17,45</t>
+          <t>-4,2; 17,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 0,46</t>
+          <t>-19,86; -0,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -44,66</t>
+          <t>-66,72; -45,36</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 12,99</t>
+          <t>3,14; 13,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,86</t>
+          <t>-2,93; 6,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,58; -9,53</t>
+          <t>-18,18; -9,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 5,12</t>
+          <t>-5,56; 6,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -7,13</t>
+          <t>-17,48; -7,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -21,42</t>
+          <t>-30,15; -20,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,73</t>
+          <t>0,1; 7,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -2,3</t>
+          <t>-9,01; -2,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,17; -16,87</t>
+          <t>-23,18; -16,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 62,74</t>
+          <t>12,64; 65,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 33,36</t>
+          <t>-11,37; 32,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,41; -45,32</t>
+          <t>-71,62; -43,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 13,76</t>
+          <t>-12,91; 16,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,31; -19,83</t>
+          <t>-41,34; -19,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -57,16</t>
+          <t>-71,1; -56,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 26,09</t>
+          <t>0,04; 26,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-28,92; -8,03</t>
+          <t>-27,18; -8,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-69,12; -56,11</t>
+          <t>-69,27; -56,47</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,41</t>
+          <t>-1,88; 9,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 0,22</t>
+          <t>-11,09; 0,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 46,88</t>
+          <t>-20,69; 44,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,41</t>
+          <t>-1,6; 10,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -8,37</t>
+          <t>-20,1; -8,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-34,36; -24,13</t>
+          <t>-34,26; -24,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,57</t>
+          <t>-0,39; 8,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -5,29</t>
+          <t>-13,87; -5,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-25,08; 22,75</t>
+          <t>-24,82; 20,66</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 34,83</t>
+          <t>-5,63; 36,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,24; 0,47</t>
+          <t>-33,51; 2,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-65,5; 156,77</t>
+          <t>-66,36; 163,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 25,64</t>
+          <t>-3,41; 27,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,04; -20,7</t>
+          <t>-42,83; -19,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,27; -61,3</t>
+          <t>-74,23; -60,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 25,22</t>
+          <t>-1,33; 24,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,69; -14,61</t>
+          <t>-35,42; -15,7</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 65,18</t>
+          <t>-66,97; 58,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,59</t>
+          <t>-1,93; 10,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 6,89</t>
+          <t>-4,79; 6,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,15; -5,06</t>
+          <t>-14,84; -4,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 11,45</t>
+          <t>-3,09; 10,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,2; -1,12</t>
+          <t>-14,23; -1,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,85; -13,87</t>
+          <t>-24,43; -13,71</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 9,11</t>
+          <t>-0,12; 9,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,55</t>
+          <t>-7,62; 1,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -10,79</t>
+          <t>-18,03; -10,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 56,96</t>
+          <t>-7,63; 55,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 37,42</t>
+          <t>-18,9; 35,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-59,58; -25,19</t>
+          <t>-58,49; -23,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 40,42</t>
+          <t>-8,3; 37,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-39,67; -3,89</t>
+          <t>-39,49; -4,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,9; -48,96</t>
+          <t>-67,06; -48,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 37,36</t>
+          <t>-0,42; 36,16</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-25,86; 5,94</t>
+          <t>-25,65; 4,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-60,39; -43,25</t>
+          <t>-60,71; -43,9</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,01; 14,63</t>
+          <t>2,74; 14,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,82</t>
+          <t>-2,59; 7,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 1,18</t>
+          <t>-7,13; 1,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,86</t>
+          <t>-2,15; 11,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -0,04</t>
+          <t>-11,27; 0,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -7,67</t>
+          <t>-20,43; -7,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 11,2</t>
+          <t>1,92; 11,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,31</t>
+          <t>-5,63; 2,43</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -4,94</t>
+          <t>-12,95; -4,84</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>22,91; 201,86</t>
+          <t>17,99; 191,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 124,97</t>
+          <t>-22,86; 100,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 20,05</t>
+          <t>-57,45; 19,44</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 69,63</t>
+          <t>-10,56; 69,24</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-51,39; -0,04</t>
+          <t>-49,99; 2,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-88,41; -42,56</t>
+          <t>-90,55; -41,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,62; 89,56</t>
+          <t>9,99; 87,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 18,36</t>
+          <t>-33,18; 20,46</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-80,28; -36,74</t>
+          <t>-78,26; -37,21</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 6,66</t>
+          <t>-7,55; 6,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 1,41</t>
+          <t>-10,59; 1,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -5,12</t>
+          <t>-15,84; -5,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 7,14</t>
+          <t>-5,78; 7,88</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -0,76</t>
+          <t>-13,51; -0,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -6,45</t>
+          <t>-17,88; -6,46</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 4,91</t>
+          <t>-4,69; 5,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-10,6; -1,56</t>
+          <t>-10,1; -1,82</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-14,61; -6,77</t>
+          <t>-14,82; -6,83</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-51,7; 96,41</t>
+          <t>-50,66; 87,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-68,68; 21,7</t>
+          <t>-68,53; 19,13</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-96,57; -67,07</t>
+          <t>-97,07; -67,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 49,66</t>
+          <t>-27,8; 60,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-63,65; -2,12</t>
+          <t>-63,62; -1,82</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-78,09; -46,13</t>
+          <t>-78,89; -47,66</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 40,02</t>
+          <t>-27,3; 49,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-60,03; -12,11</t>
+          <t>-56,59; -13,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-81,98; -58,2</t>
+          <t>-82,0; -58,5</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,52</t>
+          <t>2,08; 6,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -1,01</t>
+          <t>-5,71; -0,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 9,94</t>
+          <t>-17,35; 10,12</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,97</t>
+          <t>-0,91; 4,14</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-12,87; -8,28</t>
+          <t>-12,79; -8,17</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -21,78</t>
+          <t>-26,88; -21,91</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,56</t>
+          <t>1,28; 4,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -5,07</t>
+          <t>-8,53; -5,36</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -5,54</t>
+          <t>-21,01; -6,08</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>6,5; 23,36</t>
+          <t>6,98; 24,33</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-18,62; -3,71</t>
+          <t>-19,11; -3,51</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-61,2; 36,1</t>
+          <t>-59,93; 35,66</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 10,95</t>
+          <t>-2,37; 11,53</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-33,48; -22,9</t>
+          <t>-33,19; -22,59</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-71,67; -60,58</t>
+          <t>-71,9; -61,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>3,76; 14,33</t>
+          <t>3,78; 14,43</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-25,02; -15,89</t>
+          <t>-25,33; -16,61</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-63,81; -17,0</t>
+          <t>-63,74; -18,62</t>
         </is>
       </c>
     </row>
